--- a/InClassWorkingFiles/Fixing.xlsx
+++ b/InClassWorkingFiles/Fixing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Excel_for_Data_Science\InClassWorkingFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661E2D7-7263-40A8-955C-D9B55EF3837D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C36564-2399-42FE-9BE9-58048D25F4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48D92DCC-5A14-42B7-A64D-7F4A49D116D5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{48D92DCC-5A14-42B7-A64D-7F4A49D116D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -462,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CECD55-417F-461A-9B57-7307C09580DD}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
@@ -708,4 +709,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AA06F5-08D8-4972-8DD9-26EC28CD1F01}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f ca="1">$B$2*D3</f>
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:F8" ca="1" si="0">$B$2*E3</f>
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" ref="D9:F9" ca="1" si="1">$B$2*D4</f>
+        <v>135</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" ref="D10:F10" ca="1" si="2">$B$2*D5</f>
+        <v>270</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>